--- a/Lab2/dot_diag_straight.xlsx
+++ b/Lab2/dot_diag_straight.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Desktop\POLITO\V_ANNO\Integrated_System_Architecture\Lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Documents\GitHub\Laboratori-ISA\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -365,7 +365,7 @@
   <dimension ref="A1:BR17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AJ17" sqref="AJ17"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
